--- a/m2.xlsx
+++ b/m2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,11 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -120,45 +125,45 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="6">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,14 +175,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
@@ -186,79 +191,107 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+  <cellXfs count="17">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -270,20 +303,20 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="1:27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6651162790698"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.5023255813954"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.83720930232558"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5023255813954"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.83720930232558"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -292,13 +325,15 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -308,8 +343,8 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -319,8 +354,8 @@
       <c r="D4" s="6"/>
       <c r="E4" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -330,269 +365,302 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="7">
-      <c r="A7" s="8" t="s">
+    <row r="6" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="9">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27" outlineLevel="0" r="12">
-      <c r="A12" s="1" t="s">
+      <c r="C11" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
-      <c r="B13" s="11"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
-      <c r="A14" s="1" t="s">
+      <c r="C12" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27" outlineLevel="0" r="16">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27" outlineLevel="0" r="17">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27" outlineLevel="0" r="18">
-      <c r="A18" s="1" t="s">
+      <c r="C17" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52" outlineLevel="0" r="19">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27" outlineLevel="0" r="20">
-      <c r="B20" s="11" t="s">
+      <c r="C19" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="21">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="C20" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="22">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.5" outlineLevel="0" r="23">
-      <c r="A23" s="1" t="s">
+      <c r="D22" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="39.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27" outlineLevel="0" r="24">
-      <c r="A24" s="1" t="s">
+      <c r="D23" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27" outlineLevel="0" r="25">
-      <c r="A25" s="1" t="s">
+      <c r="D24" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="26">
-      <c r="A26" s="1" t="s">
+      <c r="D25" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27" s="15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="12" t="s">
+      <c r="C26" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" s="16" customFormat="true" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C27" s="13" t="n">
         <f aca="false">SUM(C8:C26)</f>
         <v>100</v>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="13" t="n">
         <f aca="false">SUM(D8:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="E27" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -607,18 +675,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="1:27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83720930232558"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -633,18 +701,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="1:27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83720930232558"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
